--- a/서울시 체육시설 공연행사 정보 (한국어+영어+중국어).xlsx
+++ b/서울시 체육시설 공연행사 정보 (한국어+영어+중국어).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\번역_데이터 전처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -238,6 +238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -258,6 +259,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -281,6 +283,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -301,6 +304,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -324,6 +328,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -344,14 +349,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X좌표</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -369,6 +371,10 @@
       </rPr>
       <t>좌표</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X좌표</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -387,12 +393,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -665,7 +673,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" activeCellId="1" sqref="H1 K5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -690,10 +698,10 @@
         <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/서울시 체육시설 공연행사 정보 (한국어+영어+중국어).xlsx
+++ b/서울시 체육시설 공연행사 정보 (한국어+영어+중국어).xlsx
@@ -21,15 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
-    <t>제목(한국어)</t>
-  </si>
-  <si>
-    <t>제목(영어)</t>
-  </si>
-  <si>
-    <t>제목(중국어)</t>
-  </si>
-  <si>
     <t>양천, 마포, 소방 체력측정</t>
   </si>
   <si>
@@ -222,6 +213,9 @@
     <t>室内体育馆</t>
   </si>
   <si>
+    <r>
+      <t>Y</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -231,7 +225,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>장소명</t>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X좌표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -268,6 +272,19 @@
   </si>
   <si>
     <r>
+      <t>명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -276,7 +293,23 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>장소명</t>
+      <t>영어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -297,7 +330,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>영어</t>
+      <t>중국어</t>
     </r>
     <r>
       <rPr>
@@ -321,7 +354,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>장소명</t>
+      <t>상세</t>
     </r>
     <r>
       <rPr>
@@ -342,7 +375,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>중국어</t>
+      <t>한국어</t>
     </r>
     <r>
       <rPr>
@@ -357,9 +390,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Y</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -369,12 +399,84 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>좌표</t>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X좌표</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -673,55 +775,55 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>126.883</v>
@@ -732,22 +834,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>126.883</v>
@@ -758,22 +860,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>126.883</v>
@@ -784,22 +886,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>126.883</v>
@@ -810,22 +912,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>126.883</v>
@@ -836,22 +938,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="1">
         <v>127.07599999999999</v>
@@ -862,22 +964,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>127.07599999999999</v>
@@ -888,22 +990,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="1">
         <v>127.0718</v>
@@ -914,22 +1016,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1">
         <v>127.0718</v>
@@ -940,22 +1042,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <v>127.0718</v>
@@ -966,22 +1068,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>127.0718</v>
@@ -992,22 +1094,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1">
         <v>127.0718</v>
@@ -1018,22 +1120,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>127.0718</v>
@@ -1044,22 +1146,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>127.0718</v>
@@ -1070,22 +1172,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1">
         <v>127.0718</v>
@@ -1096,22 +1198,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>127.0718</v>
@@ -1122,22 +1224,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>127.07599999999999</v>
@@ -1148,22 +1250,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="1">
         <v>127.07599999999999</v>
